--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>991488.820432305</v>
+        <v>989601.2389159026</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>317.5869158623454</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>92.13881552133064</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -817,16 +817,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>73.37668880174255</v>
+        <v>11.0042946710584</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>251.4346510253317</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>221.0706685696819</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>11.31462210444205</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>4.553842565068688</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>297.8221899746241</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>327.458045350471</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>6.791389034820115</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>90.05347083351266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1528,16 +1528,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>207.0920728594995</v>
       </c>
       <c r="X13" t="n">
-        <v>101.5008511078723</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896884</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>78.03981937612214</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,16 +1813,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>169.7438101404418</v>
       </c>
     </row>
     <row r="17">
@@ -1895,7 +1895,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2002,13 +2002,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2056,19 +2056,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>28.45472537781436</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>143.3158222056514</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>176.8688121773846</v>
       </c>
       <c r="W22" t="n">
-        <v>207.9296784859477</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>143.6235551937892</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>57.85017494300106</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2612,7 +2612,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>33.60705266584635</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,10 +2776,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>135.8803936258642</v>
       </c>
     </row>
     <row r="29">
@@ -2849,7 +2849,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2950,25 +2950,25 @@
         <v>124.6287235533801</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700706</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965519</v>
+        <v>93.41221638965516</v>
       </c>
       <c r="E31" t="n">
-        <v>91.230706018012</v>
+        <v>91.23070601801197</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437407</v>
+        <v>42.2056982312569</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897896</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571482</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523563</v>
+        <v>54.7610957752356</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550461</v>
@@ -3004,13 +3004,13 @@
         <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>154.124871905423</v>
+        <v>231.0340957700201</v>
       </c>
       <c r="V31" t="n">
         <v>196.9343866952708</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>231.3197417080338</v>
       </c>
       <c r="X31" t="n">
         <v>170.50639876048</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G32" t="n">
         <v>411.9645167896915</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3250,7 +3250,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593975</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
         <v>150.4527632224541</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1547.452423968253</v>
+        <v>864.0386341629926</v>
       </c>
       <c r="C2" t="n">
-        <v>1178.489907027842</v>
+        <v>495.0761172225809</v>
       </c>
       <c r="D2" t="n">
-        <v>1178.489907027842</v>
+        <v>495.0761172225809</v>
       </c>
       <c r="E2" t="n">
-        <v>792.7016544295973</v>
+        <v>495.0761172225809</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>488.1306164733774</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>474.2072124119683</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>147.0124924479712</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2311.057514205145</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X2" t="n">
-        <v>1937.591755944065</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="Y2" t="n">
-        <v>1547.452423968253</v>
+        <v>1250.638474227114</v>
       </c>
     </row>
     <row r="3">
@@ -4401,31 +4401,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>654.0111167299266</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>485.0749338020197</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>485.0749338020197</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>337.1618402196266</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U4" t="n">
-        <v>654.0111167299266</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="V4" t="n">
-        <v>654.0111167299266</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="W4" t="n">
-        <v>654.0111167299266</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X4" t="n">
-        <v>654.0111167299266</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
-        <v>654.0111167299266</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1017.998017761265</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C5" t="n">
-        <v>649.0355008208533</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D5" t="n">
-        <v>649.0355008208533</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>649.0355008208533</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2520.971603332393</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W5" t="n">
-        <v>2168.202948062278</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X5" t="n">
-        <v>1794.737189801198</v>
+        <v>1812.286255290752</v>
       </c>
       <c r="Y5" t="n">
-        <v>1404.597857825387</v>
+        <v>1422.14692331494</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>280.0282177315058</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>280.0282177315058</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>280.0282177315058</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>280.0282177315058</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>280.0282177315058</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>111.0284174698382</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>111.0284174698382</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U7" t="n">
-        <v>500.820796875036</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V7" t="n">
-        <v>500.820796875036</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>500.820796875036</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>500.820796875036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>280.0282177315058</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1732.515907621104</v>
+        <v>725.8268082199838</v>
       </c>
       <c r="C8" t="n">
-        <v>1363.553390680693</v>
+        <v>725.8268082199838</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>725.8268082199838</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>725.8268082199838</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4835,19 +4835,19 @@
         <v>2423.485734520779</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520779</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2423.485734520779</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W8" t="n">
-        <v>2423.485734520779</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X8" t="n">
-        <v>2423.485734520779</v>
+        <v>1112.426648284106</v>
       </c>
       <c r="Y8" t="n">
-        <v>2033.346402544967</v>
+        <v>1112.426648284106</v>
       </c>
     </row>
     <row r="9">
@@ -4893,10 +4893,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>200.8329293182748</v>
+        <v>229.7391536723321</v>
       </c>
       <c r="C10" t="n">
-        <v>200.8329293182748</v>
+        <v>60.80297074442518</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>60.80297074442518</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036446</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>484.423641878219</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>484.423641878219</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>484.423641878219</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005475</v>
+        <v>229.7391536723321</v>
       </c>
       <c r="W10" t="n">
-        <v>473.4444960005475</v>
+        <v>229.7391536723321</v>
       </c>
       <c r="X10" t="n">
-        <v>473.4444960005475</v>
+        <v>229.7391536723321</v>
       </c>
       <c r="Y10" t="n">
-        <v>382.4813941485145</v>
+        <v>229.7391536723321</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,19 +5024,19 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
@@ -5127,19 +5127,19 @@
         <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.995055864553</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N12" t="n">
-        <v>1538.857683528586</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O12" t="n">
-        <v>2208.321444831246</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>563.1598612984388</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028584</v>
@@ -5200,19 +5200,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
         <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655738</v>
+        <v>755.1831334811258</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286132</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X13" t="n">
-        <v>563.1598612984388</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>563.1598612984388</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.3213845506</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610188</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003438</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405193</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155859</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231261</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141865</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465298</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121728</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851613</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590533</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614722</v>
       </c>
     </row>
     <row r="15">
@@ -5343,37 +5343,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277031</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.542980734167</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>358.8683222506744</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="C16" t="n">
-        <v>358.8683222506744</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D16" t="n">
-        <v>208.7516828383386</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="E16" t="n">
-        <v>208.7516828383386</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383386</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383386</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383386</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471188</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>786.082206476518</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655736</v>
+        <v>786.082206476518</v>
       </c>
       <c r="W16" t="n">
-        <v>665.6859735286131</v>
+        <v>496.6650364395574</v>
       </c>
       <c r="X16" t="n">
-        <v>437.6964226305957</v>
+        <v>268.6754855415402</v>
       </c>
       <c r="Y16" t="n">
-        <v>437.6964226305957</v>
+        <v>97.21709146028581</v>
       </c>
     </row>
     <row r="17">
@@ -5510,10 +5510,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514082</v>
@@ -5522,34 +5522,34 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
@@ -5580,37 +5580,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>412.6079778147081</v>
+        <v>412.607977814708</v>
       </c>
       <c r="L18" t="n">
-        <v>659.3731057211721</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M18" t="n">
-        <v>1039.489963795367</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>714.6010158349783</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C19" t="n">
-        <v>545.6648329070714</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D19" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E19" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247856</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>964.1357418247856</v>
+        <v>786.0822064765188</v>
       </c>
       <c r="V19" t="n">
-        <v>935.3935949785084</v>
+        <v>531.3977182706319</v>
       </c>
       <c r="W19" t="n">
-        <v>935.3935949785084</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>935.3935949785084</v>
+        <v>241.9805482336711</v>
       </c>
       <c r="Y19" t="n">
-        <v>714.6010158349783</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="20">
@@ -5750,7 +5750,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514083</v>
@@ -5829,22 +5829,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>879.2482765610115</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>710.3120936331046</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>560.1954542207689</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2823606383757</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5929,31 +5929,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557903</v>
+        <v>786.0822064765185</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.916270557903</v>
+        <v>607.4268406407765</v>
       </c>
       <c r="W22" t="n">
-        <v>1288.886292289269</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X22" t="n">
-        <v>1060.896741391251</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>1060.896741391251</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5966,46 +5966,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6014,22 +6014,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6066,22 +6066,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>732.1698305154059</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1027.850635690702</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>858.9144527627955</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>708.7978133504597</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>560.8847197680666</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6148,7 +6148,7 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
         <v>507.4972331799363</v>
@@ -6166,31 +6166,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557903</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>1498.916270557903</v>
+        <v>727.647686332073</v>
       </c>
       <c r="W25" t="n">
-        <v>1209.499100520942</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.499100520942</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>1209.499100520942</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,25 +6209,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,7 +6236,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6312,7 +6312,7 @@
         <v>901.674922584592</v>
       </c>
       <c r="M27" t="n">
-        <v>1332.091733170013</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N27" t="n">
         <v>1661.954360834046</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>727.722798873107</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>558.7866159452001</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>558.7866159452001</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>410.873522362807</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>410.873522362807</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>242.6982006826276</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6388,10 +6388,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,7 +6400,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
         <v>1498.916270557902</v>
@@ -6409,25 +6409,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1164.055751909234</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U28" t="n">
-        <v>1164.055751909234</v>
+        <v>898.7925182488383</v>
       </c>
       <c r="V28" t="n">
-        <v>909.3712637033467</v>
+        <v>644.1080300429514</v>
       </c>
       <c r="W28" t="n">
-        <v>909.3712637033467</v>
+        <v>644.1080300429514</v>
       </c>
       <c r="X28" t="n">
-        <v>909.3712637033467</v>
+        <v>416.1184791449341</v>
       </c>
       <c r="Y28" t="n">
-        <v>909.3712637033467</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,61 +6452,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6528,37 +6528,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>1332.091733170013</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N30" t="n">
-        <v>1661.954360834046</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>750.8748194215243</v>
+        <v>439.5324299542199</v>
       </c>
       <c r="C31" t="n">
-        <v>637.6995017749883</v>
+        <v>326.3571123076839</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440235</v>
+        <v>232.0013381767191</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430012</v>
+        <v>139.8491098756969</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264618</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276532</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864676</v>
+        <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933504</v>
+        <v>369.0876362933503</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667513</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
         <v>997.6688721962056</v>
@@ -6652,19 +6652,19 @@
         <v>1568.628130167072</v>
       </c>
       <c r="U31" t="n">
-        <v>1412.946441373715</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1214.022818449199</v>
+        <v>1136.336733737484</v>
       </c>
       <c r="W31" t="n">
-        <v>1214.022818449199</v>
+        <v>902.6804289818947</v>
       </c>
       <c r="X31" t="n">
-        <v>1041.794132832552</v>
+        <v>730.4517433652483</v>
       </c>
       <c r="Y31" t="n">
-        <v>876.7624189703931</v>
+        <v>565.4200295030887</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
         <v>1701.09316900344</v>
@@ -6689,22 +6689,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6716,13 +6716,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>644.6755122555218</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>891.4406401619858</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
         <v>398.9545963083204</v>
@@ -6853,55 +6853,55 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254961</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649697</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6914,70 +6914,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7002,40 +7002,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>901.674922584592</v>
+        <v>539.5926371926337</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.043068977053</v>
+        <v>846.9127704725952</v>
       </c>
       <c r="N36" t="n">
-        <v>1999.905696641086</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
         <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504511</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045204</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7151,52 +7151,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>474.7746905116418</v>
       </c>
       <c r="L39" t="n">
-        <v>901.674922584592</v>
+        <v>721.5398184181058</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.043068977053</v>
+        <v>1028.859951698067</v>
       </c>
       <c r="N39" t="n">
-        <v>1999.905696641086</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
         <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525402</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,25 +7394,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7427,16 +7427,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229671</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504512</v>
@@ -7561,10 +7561,10 @@
         <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7646,13 +7646,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515098</v>
@@ -7728,19 +7728,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>391.6040140015125</v>
       </c>
       <c r="L45" t="n">
-        <v>901.674922584592</v>
+        <v>638.3691419079765</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.043068977053</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N45" t="n">
-        <v>1999.905696641086</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P45" t="n">
         <v>2536.440602918915</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7831,25 +7831,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,13 +8541,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8775,22 +8775,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>41.75994765618395</v>
       </c>
       <c r="P12" t="n">
-        <v>124.3400780863232</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229594</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9246,22 +9246,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>73.53204524670076</v>
+        <v>73.64859338270691</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,16 +9492,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>43.65987261462533</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>199.6230805871097</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9960,10 +9960,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>124.3400780863229</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>124.340078086323</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10194,22 +10194,22 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>124.3400780863229</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>213.2603911806631</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,19 +10437,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>188.8856946302409</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10668,16 +10668,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>5.100663089359927</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>52.49733361305277</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>62.79465928983205</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>52.49733361305277</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11075,13 +11075,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714841</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,31 +11136,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>297.3877236703352</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11376,10 +11376,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>104.874910276575</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11388,10 +11388,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>52.49733361305277</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -23416,16 +23416,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23464,7 +23464,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>79.43092547709151</v>
       </c>
       <c r="X13" t="n">
-        <v>124.2088042811649</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>101.7921608058152</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,16 +23701,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>48.84084321165298</v>
       </c>
     </row>
     <row r="17">
@@ -23890,13 +23890,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,7 +23905,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,19 +23944,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>223.6829179460136</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>75.26883114644335</v>
       </c>
     </row>
     <row r="20">
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24175,25 +24175,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>75.26883114644343</v>
       </c>
       <c r="W22" t="n">
-        <v>78.59331985064333</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>1.797492829142086</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24412,25 +24412,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>194.2874683808269</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>115.3067757016897</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,13 +24649,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>82.70425972623059</v>
       </c>
     </row>
     <row r="29">
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>48.01209316311714</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897893</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.2159888357148</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,13 +24892,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>76.90922386459724</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080338</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>991830.5252751355</v>
+        <v>991830.5252751356</v>
       </c>
     </row>
     <row r="10">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>410520.8849321415</v>
+        <v>410520.8849321416</v>
       </c>
       <c r="C2" t="n">
         <v>410520.8849321416</v>
       </c>
       <c r="D2" t="n">
-        <v>410520.8849321415</v>
+        <v>410520.8849321414</v>
       </c>
       <c r="E2" t="n">
         <v>391029.0597377088</v>
       </c>
       <c r="F2" t="n">
+        <v>391029.0597377089</v>
+      </c>
+      <c r="G2" t="n">
         <v>391029.0597377088</v>
-      </c>
-      <c r="G2" t="n">
-        <v>391029.0597377089</v>
       </c>
       <c r="H2" t="n">
         <v>391029.0597377088</v>
@@ -26335,13 +26335,13 @@
         <v>391029.0597377088</v>
       </c>
       <c r="J2" t="n">
-        <v>391029.0597377088</v>
+        <v>391029.0597377089</v>
       </c>
       <c r="K2" t="n">
-        <v>406822.1373452707</v>
+        <v>406822.1373452706</v>
       </c>
       <c r="L2" t="n">
-        <v>410520.8849321423</v>
+        <v>410520.8849321422</v>
       </c>
       <c r="M2" t="n">
         <v>410520.8849321422</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284573</v>
+        <v>44162.60530284576</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086694</v>
+        <v>10342.90680086677</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284573</v>
+        <v>44162.60530284577</v>
       </c>
     </row>
     <row r="4">
@@ -26427,10 +26427,10 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143924</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.66962143916</v>
       </c>
       <c r="H4" t="n">
         <v>15045.66962143911</v>
@@ -26439,22 +26439,22 @@
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143912</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563572</v>
+        <v>33210.29213563568</v>
       </c>
       <c r="L4" t="n">
         <v>37464.45686275959</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275965</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="N4" t="n">
+        <v>37464.45686275957</v>
+      </c>
+      <c r="O4" t="n">
         <v>37464.45686275959</v>
-      </c>
-      <c r="O4" t="n">
-        <v>37464.4568627596</v>
       </c>
       <c r="P4" t="n">
         <v>37464.45686275959</v>
@@ -26479,34 +26479,34 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871659</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022278</v>
+        <v>96628.20853022282</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="M5" t="n">
         <v>97715.1058200254</v>
       </c>
-      <c r="M5" t="n">
-        <v>97715.10582002538</v>
-      </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
         <v>97715.1058200254</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-419081.030597035</v>
+        <v>-419081.0305970351</v>
       </c>
       <c r="C6" t="n">
         <v>170886.8486175096</v>
       </c>
       <c r="D6" t="n">
-        <v>170886.8486175095</v>
+        <v>170886.8486175093</v>
       </c>
       <c r="E6" t="n">
-        <v>-241163.9723093429</v>
+        <v>-241261.4314353151</v>
       </c>
       <c r="F6" t="n">
-        <v>283996.0641675531</v>
+        <v>283898.6050415811</v>
       </c>
       <c r="G6" t="n">
-        <v>283996.0641675532</v>
+        <v>283898.6050415807</v>
       </c>
       <c r="H6" t="n">
-        <v>283996.0641675531</v>
+        <v>283898.6050415809</v>
       </c>
       <c r="I6" t="n">
-        <v>283996.0641675531</v>
+        <v>283898.6050415809</v>
       </c>
       <c r="J6" t="n">
-        <v>107572.8449749601</v>
+        <v>107475.3858489881</v>
       </c>
       <c r="K6" t="n">
-        <v>232821.0313765665</v>
+        <v>232802.537638632</v>
       </c>
       <c r="L6" t="n">
-        <v>264998.4154484903</v>
+        <v>264998.4154484904</v>
       </c>
       <c r="M6" t="n">
-        <v>140540.3070155202</v>
+        <v>140540.30701552</v>
       </c>
       <c r="N6" t="n">
         <v>275341.3222493572</v>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855716</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964067</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26747,16 +26747,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855716</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108353</v>
+        <v>12.92863350108347</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855721</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26972,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27039,10 +27039,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990169</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855716</v>
+        <v>55.2032566285572</v>
       </c>
     </row>
     <row r="3">
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>89.28912987936599</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>59.79250072353061</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,16 +27537,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>212.9051854402352</v>
+        <v>275.2775795709193</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>155.4413947163797</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>148.6604321087871</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>123.6509996878962</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,16 +27831,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>247.5838007587593</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>84.91165168885652</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>79.41800039124047</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>139.642573611749</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>128.5311825185821</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>3.012701199622825e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.2032566285572</v>
       </c>
     </row>
     <row r="32">
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31990,46 +31990,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,43 +32069,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,43 +32151,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N16" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35030,10 +35030,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35495,22 +35495,22 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>324.1236498972921</v>
       </c>
       <c r="P12" t="n">
-        <v>331.4334930178478</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
         <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734255</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415662</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35811,7 +35811,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>383.956422297167</v>
+        <v>384.0729704331731</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>326.0235748557334</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>448.880785543134</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36680,10 +36680,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>434.7644551367891</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>457.5346514843358</v>
       </c>
       <c r="O27" t="n">
         <v>676.2260215178376</v>
@@ -36832,7 +36832,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
@@ -36914,22 +36914,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>434.7644551367891</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>495.6240934217712</v>
       </c>
       <c r="P30" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412269</v>
+        <v>67.71102679412272</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584677</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043192</v>
+        <v>94.42895660043195</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>384.9870895382561</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
@@ -37157,19 +37157,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>471.2493968713491</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,7 +37306,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
@@ -37388,16 +37388,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>254.3583680453842</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>334.8610358541609</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
         <v>207.0934149315246</v>
@@ -37406,7 +37406,7 @@
         <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37479,7 +37479,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37549,7 +37549,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>213.3700978777713</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>334.8610358541609</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37795,13 +37795,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q41" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>630.582297068348</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K44" t="n">
         <v>528.689756130333</v>
@@ -38023,7 +38023,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38096,10 +38096,10 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>255.4503488645142</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
         <v>776.1294408004661</v>
@@ -38108,10 +38108,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>334.8610358541609</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>88.0130327850741</v>
